--- a/data/datasets.xlsx
+++ b/data/datasets.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbleh\Desktop\UChicago\wsl\git\ml_project\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9821FDF7-48C3-4004-9256-3470D9896085}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -57,6 +66,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Illinois Traffic and Pedestrian Stop Study</t>
     </r>
@@ -66,6 +76,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>[1]</t>
     </r>
@@ -74,6 +85,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -83,6 +95,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>[2]</t>
     </r>
@@ -97,6 +110,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>[1]</t>
     </r>
@@ -105,6 +119,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> https://idot.illinois.gov/transportation-system/local-transportation-partners/law-enforcement/illinois-traffic-stop-study, </t>
     </r>
@@ -114,6 +129,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [2] </t>
     </r>
@@ -122,6 +138,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Data downloaded from Stanford Open Policing Project: https://openpolicing.stanford.edu/data/.</t>
     </r>
@@ -151,6 +168,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>[3]</t>
     </r>
@@ -159,6 +177,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> https://home.chicagopolice.org/statistics-data/isr-data/</t>
     </r>
@@ -167,13 +186,7 @@
     <t>Jan 2016 – Dec 2019</t>
   </si>
   <si>
-    <t>Unknown (&lt;1 GB)</t>
-  </si>
-  <si>
     <t>Stop date/time/location, demographic info, officer id info, enforcement action taken (e.g., arrest), pat down/search and results, suspicions of criminal activity, firearm/narcotics/contraband found.</t>
-  </si>
-  <si>
-    <t>Location includes areas and addresses, not specific lat/longs.</t>
   </si>
   <si>
     <t>CPD Use of Force Data[4]</t>
@@ -185,6 +198,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>[4]</t>
     </r>
@@ -193,6 +207,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> https://home.chicagopolice.org/statistics-data/data-dashboards/use-of-force-dashboard/</t>
     </r>
@@ -218,10 +233,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>https://data.world/wbezchicago/chicago-police-tss-cards</t>
     </r>
@@ -246,59 +262,78 @@
   </si>
   <si>
     <t>Beat, Zip, and Community Area data is fishy</t>
+  </si>
+  <si>
+    <t>Date/Time</t>
+  </si>
+  <si>
+    <t>STREET_NO
+STREET_DIRECTION_CD
+STREET_NME
+APT_NO
+CITY
+STATE_CD
+ZIP_CD
+HALF_ADDRESS_I
+DISTRICT
+SECTOR
+BEAT
+AREA
+WARD</t>
+  </si>
+  <si>
+    <t>475K (after removing redactions/duplicates)</t>
+  </si>
+  <si>
+    <t>CPD_UNIT_NO</t>
+  </si>
+  <si>
+    <t>Wards are not in data, contains anonymized officer IDs (allow for matching within data, not externally)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -465,85 +500,82 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,27 +585,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffdeeaf6"/>
-      <rgbColor rgb="ffd8d8d8"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff0563c1"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFDEEAF6"/>
+      <rgbColor rgb="FFD8D8D8"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -775,7 +865,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -794,7 +884,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -824,7 +914,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -850,7 +940,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -876,7 +966,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -902,7 +992,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -928,7 +1018,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -954,7 +1044,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -980,7 +1070,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1006,7 +1096,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1032,7 +1122,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1045,9 +1135,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1064,7 +1160,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1083,7 +1179,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1109,7 +1205,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1135,7 +1231,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1161,7 +1257,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1187,7 +1283,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1213,7 +1309,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1239,7 +1335,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1265,7 +1361,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1291,7 +1387,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1317,7 +1413,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1330,9 +1426,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1346,7 +1448,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1365,7 +1467,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1395,7 +1497,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1421,7 +1523,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1447,7 +1549,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1473,7 +1575,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1499,7 +1601,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1525,7 +1627,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1551,7 +1653,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1577,7 +1679,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1603,7 +1705,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1616,257 +1718,273 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="22.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1719" style="1" customWidth="1"/>
-    <col min="5" max="6" width="22.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.67188" style="1" customWidth="1"/>
-    <col min="8" max="10" width="22.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="3" width="22.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="22.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="22.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" t="s" s="3">
+    <row r="2" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" t="s" s="5">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="25"/>
     </row>
-    <row r="3" ht="154.2" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:10" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" t="s" s="6">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s" s="6">
+      <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" t="s" s="6">
+      <c r="I3" s="7"/>
+      <c r="J3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" ht="124.2" customHeight="1">
-      <c r="A4" t="s" s="9">
+    <row r="4" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s" s="10">
+      <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s" s="11">
+      <c r="C4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s" s="10">
+      <c r="D4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" t="s" s="13">
+      <c r="E4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s" s="13">
+      <c r="I4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" t="s" s="10">
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="D5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" ht="70.2" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s" s="10">
+    <row r="6" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s" s="11">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" t="s" s="10">
-        <v>32</v>
+      <c r="C7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="6" ht="28.8" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>33</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
     </row>
-    <row r="7" ht="52.55" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s" s="9">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s" s="9">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="H7" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="I7" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="J7" t="s" s="9">
-        <v>42</v>
-      </c>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
+    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" location="" tooltip="" display="https://data.world/wbezchicago/chicago-police-tss-cards"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
